--- a/notebooks/output/medhhi_hhsize.xlsx
+++ b/notebooks/output/medhhi_hhsize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/notebooks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B96BA46-4ECA-684F-B797-65EF73163E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E7508-228C-504A-A831-67E5A17C1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="5160" windowWidth="26980" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="2940" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PUMAS" sheetId="1" r:id="rId1"/>
@@ -250,8 +250,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -426,12 +426,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -442,8 +442,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,7 +456,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -558,22 +558,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -590,56 +574,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -977,13 +911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2294,7 +2228,7 @@
         <v>32.798533859361982</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>0.5</v>
       </c>
@@ -2320,8 +2254,11 @@
       <c r="X19" s="12">
         <v>49000</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA19" s="12">
+        <v>52150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>0.8</v>
       </c>
@@ -2347,8 +2284,11 @@
       <c r="X20" s="12">
         <v>78400</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA20" s="12">
+        <v>83450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -2381,15 +2321,19 @@
         <f>X19*2</f>
         <v>98000</v>
       </c>
+      <c r="AA21" s="13">
+        <f>AA19*2</f>
+        <v>104300</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16 K2:K16 N2:N16 Q2:Q16 T2:T16 W2:W16 Z2:Z16">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
